--- a/doc/后续工作20130921起/28分析软件后续工作和服务器站点【持续更新】.xlsx
+++ b/doc/后续工作20130921起/28分析软件后续工作和服务器站点【持续更新】.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>服务器站点列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,14 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值卡查询，编辑，禁用/启用，删除（非物理删除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户查询，禁用/启用，删除（非物理删除），详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户充值记录查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公告列表，启用/禁用，删除（非物理删除），编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI马海做,Service由强尼做。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +232,30 @@
   </si>
   <si>
     <t>Nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nick:100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nick:40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值卡查询，编辑，禁用/启用，删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询，禁用/启用，删除，详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告列表，启用/禁用，删除，编辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,6 +427,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -744,29 +759,31 @@
     <col min="3" max="3" width="32.75" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="12" max="12" width="53.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="14.25">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="H1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="6"/>
+      <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -785,24 +802,27 @@
       <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:12" ht="27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -817,24 +837,25 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>8081</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.5">
+    <row r="4" spans="1:12" ht="40.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
@@ -847,20 +868,21 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>8082</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -879,20 +901,21 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>8083</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -909,8 +932,9 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,8 +949,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="27">
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -943,13 +970,16 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="27">
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -966,17 +996,18 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27">
+        <v>47</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -993,23 +1024,26 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="27">
+    </row>
+    <row r="11" spans="1:12" ht="27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>37</v>
@@ -1020,15 +1054,18 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27">
+    </row>
+    <row r="12" spans="1:12" ht="27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1045,21 +1082,22 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27">
+      <c r="G12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>37</v>
@@ -1070,14 +1108,15 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="27">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>37</v>
@@ -1088,50 +1127,53 @@
       <c r="F14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="27">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="27">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
+      <c r="G16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/doc/后续工作20130921起/28分析软件后续工作和服务器站点【持续更新】.xlsx
+++ b/doc/后续工作20130921起/28分析软件后续工作和服务器站点【持续更新】.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>服务器站点列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nick:40%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充值卡查询，编辑，禁用/启用，删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +252,55 @@
   </si>
   <si>
     <t>公告列表，启用/禁用，删除，编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service方法名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemUserLogic.Login()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemUserLogic.ChangePwd()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayCardLogic.CreatePayCard()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayLogLogic.GetPayLogByBatch()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayLogLogic.GetUserPayLog()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统一为类：PayCardLogic。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>充值卡查询：QueryPayCard()；获取单张充值卡：GetBySysNo()；编辑：Edit（）；启用：EnablePayCard()；禁用：DisablePayCard()；删除：DeletePayCard()。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +342,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +512,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -760,13 +827,14 @@
     <col min="4" max="4" width="21.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" customWidth="1"/>
-    <col min="12" max="12" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="13" max="13" width="53.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25">
+    <row r="1" spans="1:13" ht="14.25">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -776,14 +844,15 @@
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
       <c r="G1" s="6"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -805,20 +874,23 @@
       <c r="G2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="27">
+    <row r="3" spans="1:13" ht="27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -838,20 +910,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="4"/>
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>8081</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="40.5">
+    <row r="4" spans="1:13" ht="40.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -869,20 +942,21 @@
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="4"/>
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>8082</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -902,20 +976,21 @@
         <v>2</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="4"/>
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>8083</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -933,8 +1008,9 @@
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -952,8 +1028,9 @@
       <c r="G7" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="27">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -973,13 +1050,16 @@
       <c r="G8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="27">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -996,18 +1076,23 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27">
+    <row r="10" spans="1:13" ht="27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1027,23 +1112,26 @@
       <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="27">
+    <row r="11" spans="1:13" ht="81">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>37</v>
@@ -1055,17 +1143,20 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27">
+    <row r="12" spans="1:13" ht="27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1082,22 +1173,27 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="27">
+    <row r="13" spans="1:13" ht="27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>37</v>
@@ -1109,8 +1205,9 @@
         <v>2</v>
       </c>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="27">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1127,15 +1224,20 @@
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="27">
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>43</v>
@@ -1147,8 +1249,9 @@
         <v>3</v>
       </c>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="27">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1166,14 +1269,15 @@
         <v>3</v>
       </c>
       <c r="G16" s="1"/>
+      <c r="H16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="K10:K12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">

--- a/doc/后续工作20130921起/28分析软件后续工作和服务器站点【持续更新】.xlsx
+++ b/doc/后续工作20130921起/28分析软件后续工作和服务器站点【持续更新】.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>服务器站点列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,12 +303,59 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统一为类：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户查询：QueryUser()；获取单个用户：GetBySysNo()；启用：EnableUser()；禁用：DisableUser()；删除：DeleteUser()。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +405,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,6 +547,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,12 +573,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -835,22 +890,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="14"/>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="7"/>
+      <c r="J1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
@@ -894,7 +949,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -928,7 +983,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1053,11 +1108,11 @@
       <c r="H8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="27">
       <c r="A9" s="1">
@@ -1118,7 +1173,7 @@
       <c r="J10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="12" t="s">
         <v>48</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1145,13 +1200,13 @@
       <c r="G11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="8" t="s">
         <v>67</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1182,12 +1237,12 @@
       <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="11"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="27">
+    <row r="13" spans="1:13" ht="81">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1204,8 +1259,12 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="27">
       <c r="A14" s="1">
